--- a/Code/Results/Cases/Case_0_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_121/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.128075522353076</v>
+        <v>4.915629811074257</v>
       </c>
       <c r="D2">
-        <v>5.692817285785349</v>
+        <v>8.583274659809444</v>
       </c>
       <c r="E2">
-        <v>8.164101533555288</v>
+        <v>13.05105998099303</v>
       </c>
       <c r="F2">
-        <v>24.38031808914835</v>
+        <v>34.31405872449314</v>
       </c>
       <c r="G2">
-        <v>2.085102889624728</v>
+        <v>3.661337967947568</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.644922827514879</v>
+        <v>9.892769714158318</v>
       </c>
       <c r="K2">
-        <v>18.42829494800807</v>
+        <v>14.51406234845141</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.91776090255687</v>
+        <v>17.38098029013006</v>
       </c>
       <c r="N2">
-        <v>12.32566203957323</v>
+        <v>18.35145926791868</v>
       </c>
       <c r="O2">
-        <v>17.55365807984876</v>
+        <v>26.0842163145504</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.633753255386912</v>
+        <v>4.750894200201358</v>
       </c>
       <c r="D3">
-        <v>5.538029740446269</v>
+        <v>8.572011588633375</v>
       </c>
       <c r="E3">
-        <v>8.064668219212688</v>
+        <v>13.06757547913093</v>
       </c>
       <c r="F3">
-        <v>23.85246934600517</v>
+        <v>34.35245704808164</v>
       </c>
       <c r="G3">
-        <v>2.09120330874748</v>
+        <v>3.663666144554797</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.680824109917841</v>
+        <v>9.917952408448256</v>
       </c>
       <c r="K3">
-        <v>17.21215696543856</v>
+        <v>14.13593058514326</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.15572286978603</v>
+        <v>17.23843288551542</v>
       </c>
       <c r="N3">
-        <v>12.48801301249611</v>
+        <v>18.40513111931306</v>
       </c>
       <c r="O3">
-        <v>17.3168949793001</v>
+        <v>26.1437608241578</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.313362388582533</v>
+        <v>4.648291909041469</v>
       </c>
       <c r="D4">
-        <v>5.44286383527499</v>
+        <v>8.566166213489042</v>
       </c>
       <c r="E4">
-        <v>8.007569498437924</v>
+        <v>13.07973477895648</v>
       </c>
       <c r="F4">
-        <v>23.5469724313181</v>
+        <v>34.38497206122835</v>
       </c>
       <c r="G4">
-        <v>2.095062264809623</v>
+        <v>3.665171642017205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.705252950544087</v>
+        <v>9.934520280079946</v>
       </c>
       <c r="K4">
-        <v>16.42211903927131</v>
+        <v>13.9006312070146</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.67184071431436</v>
+        <v>17.15309096936968</v>
       </c>
       <c r="N4">
-        <v>12.59108256312786</v>
+        <v>18.43993193558751</v>
       </c>
       <c r="O4">
-        <v>17.1880243793406</v>
+        <v>26.18673831074121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.178521382957293</v>
+        <v>4.606190335121231</v>
       </c>
       <c r="D5">
-        <v>5.404101593709344</v>
+        <v>8.564055142500637</v>
       </c>
       <c r="E5">
-        <v>7.985294662996834</v>
+        <v>13.08519753520319</v>
       </c>
       <c r="F5">
-        <v>23.4271860947466</v>
+        <v>34.40046493900022</v>
       </c>
       <c r="G5">
-        <v>2.096664087393246</v>
+        <v>3.665804314275285</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.715793032863777</v>
+        <v>9.941550167235782</v>
       </c>
       <c r="K5">
-        <v>16.08922686539594</v>
+        <v>13.80410058780824</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.47085737401728</v>
+        <v>17.1188932248781</v>
       </c>
       <c r="N5">
-        <v>12.63393541738419</v>
+        <v>18.45457881296792</v>
       </c>
       <c r="O5">
-        <v>17.13956686037896</v>
+        <v>26.20586066810353</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.155871656835276</v>
+        <v>4.599184177112573</v>
       </c>
       <c r="D6">
-        <v>5.39766779438358</v>
+        <v>8.563721018105047</v>
       </c>
       <c r="E6">
-        <v>7.981655874540137</v>
+        <v>13.0861352899141</v>
       </c>
       <c r="F6">
-        <v>23.4075804003934</v>
+        <v>34.40317281391251</v>
       </c>
       <c r="G6">
-        <v>2.09693185863784</v>
+        <v>3.66591052865909</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.717578132637398</v>
+        <v>9.9427342958725</v>
       </c>
       <c r="K6">
-        <v>16.03328793313496</v>
+        <v>13.78803712479076</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.43726221177966</v>
+        <v>17.11325061615736</v>
       </c>
       <c r="N6">
-        <v>12.64110252519361</v>
+        <v>18.45703904765439</v>
       </c>
       <c r="O6">
-        <v>17.13176271610779</v>
+        <v>26.20913293038522</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.311561248519151</v>
+        <v>4.647725184292873</v>
       </c>
       <c r="D7">
-        <v>5.442340930466854</v>
+        <v>8.566136643353344</v>
       </c>
       <c r="E7">
-        <v>8.007265072765964</v>
+        <v>13.07980639566985</v>
       </c>
       <c r="F7">
-        <v>23.54533787080541</v>
+        <v>34.38517193002731</v>
       </c>
       <c r="G7">
-        <v>2.095083748040357</v>
+        <v>3.665180096756405</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.705392747382342</v>
+        <v>9.9346139601445</v>
       </c>
       <c r="K7">
-        <v>16.41767391946321</v>
+        <v>13.89933177723451</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.6691452336791</v>
+        <v>17.15262737905161</v>
       </c>
       <c r="N7">
-        <v>12.59165704473684</v>
+        <v>18.44012758327679</v>
       </c>
       <c r="O7">
-        <v>17.18735456252676</v>
+        <v>26.18698969485867</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.96111379008571</v>
+        <v>4.859174163822052</v>
       </c>
       <c r="D8">
-        <v>5.639501972621859</v>
+        <v>8.579170185937409</v>
       </c>
       <c r="E8">
-        <v>8.128996400069946</v>
+        <v>13.05633563592205</v>
       </c>
       <c r="F8">
-        <v>24.19447578466389</v>
+        <v>34.3254407014453</v>
       </c>
       <c r="G8">
-        <v>2.087183287989685</v>
+        <v>3.662124989462022</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.656797432189398</v>
+        <v>9.901223441520134</v>
       </c>
       <c r="K8">
-        <v>18.01792983655741</v>
+        <v>14.38441370047176</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.65844965385885</v>
+        <v>17.33139574324345</v>
       </c>
       <c r="N8">
-        <v>12.38093766154431</v>
+        <v>18.36958279731661</v>
       </c>
       <c r="O8">
-        <v>17.46854580537989</v>
+        <v>26.10341259727855</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.102649812626481</v>
+        <v>5.259272899247185</v>
       </c>
       <c r="D9">
-        <v>6.023077109337394</v>
+        <v>8.61313416879001</v>
       </c>
       <c r="E9">
-        <v>8.399043443177662</v>
+        <v>13.02631959348161</v>
       </c>
       <c r="F9">
-        <v>25.61321902200271</v>
+        <v>34.27940411879399</v>
       </c>
       <c r="G9">
-        <v>2.072551718844465</v>
+        <v>3.656734027361218</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.5811315056735</v>
+        <v>9.844502188337106</v>
       </c>
       <c r="K9">
-        <v>20.81488645583295</v>
+        <v>15.30503926839248</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.46381373525731</v>
+        <v>17.69787953951602</v>
       </c>
       <c r="N9">
-        <v>11.99463305012708</v>
+        <v>18.24584507921249</v>
       </c>
       <c r="O9">
-        <v>18.15437826362534</v>
+        <v>25.99063699973582</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.86310524880184</v>
+        <v>5.5407350462609</v>
       </c>
       <c r="D10">
-        <v>6.300516765374725</v>
+        <v>8.643089094656013</v>
       </c>
       <c r="E10">
-        <v>8.616425042408435</v>
+        <v>13.01401326793241</v>
       </c>
       <c r="F10">
-        <v>26.74154039076772</v>
+        <v>34.28909916195072</v>
       </c>
       <c r="G10">
-        <v>2.062271103330259</v>
+        <v>3.653135155497707</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.538547093249312</v>
+        <v>9.808147346495071</v>
       </c>
       <c r="K10">
-        <v>22.66586296295625</v>
+        <v>15.95555556709328</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.87409064185735</v>
+        <v>17.97491704665595</v>
       </c>
       <c r="N10">
-        <v>11.72738900090616</v>
+        <v>18.16377002586783</v>
       </c>
       <c r="O10">
-        <v>18.74419054480494</v>
+        <v>25.93919851941967</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.192611915562637</v>
+        <v>5.665420649230609</v>
       </c>
       <c r="D11">
-        <v>6.425328803279153</v>
+        <v>8.657773590814601</v>
       </c>
       <c r="E11">
-        <v>8.719397250590674</v>
+        <v>13.01052633362513</v>
       </c>
       <c r="F11">
-        <v>27.27285761209001</v>
+        <v>34.30297352153691</v>
       </c>
       <c r="G11">
-        <v>2.057682758254687</v>
+        <v>3.65157566791075</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.522247767039364</v>
+        <v>9.792759129736044</v>
       </c>
       <c r="K11">
-        <v>23.46460283586027</v>
+        <v>16.24453000137759</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51180041934442</v>
+        <v>18.10221916390116</v>
       </c>
       <c r="N11">
-        <v>11.60948399833942</v>
+        <v>18.12833676272603</v>
       </c>
       <c r="O11">
-        <v>19.03183726960829</v>
+        <v>25.92266497945402</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.315071552742964</v>
+        <v>5.712107463491328</v>
       </c>
       <c r="D12">
-        <v>6.472358794456934</v>
+        <v>8.663483660778885</v>
       </c>
       <c r="E12">
-        <v>8.758973302377889</v>
+        <v>13.00950891118169</v>
       </c>
       <c r="F12">
-        <v>27.47659700326934</v>
+        <v>34.30958736990895</v>
       </c>
       <c r="G12">
-        <v>2.055956792768078</v>
+        <v>3.650996233478555</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.516539953113561</v>
+        <v>9.787097038635793</v>
       </c>
       <c r="K12">
-        <v>23.76092583547532</v>
+        <v>16.35285793407395</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.74846877219871</v>
+        <v>18.15057312110622</v>
       </c>
       <c r="N12">
-        <v>11.5653731201133</v>
+        <v>18.11519178534389</v>
       </c>
       <c r="O12">
-        <v>19.14358724751874</v>
+        <v>25.91739433402049</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.288800004778944</v>
+        <v>5.702076834964631</v>
       </c>
       <c r="D13">
-        <v>6.462240910158143</v>
+        <v>8.662247296910888</v>
       </c>
       <c r="E13">
-        <v>8.750424042126738</v>
+        <v>13.00971456576707</v>
       </c>
       <c r="F13">
-        <v>27.43260579409596</v>
+        <v>34.30810250491714</v>
       </c>
       <c r="G13">
-        <v>2.056328016514622</v>
+        <v>3.651120531854119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.517748203075083</v>
+        <v>9.788309132570157</v>
       </c>
       <c r="K13">
-        <v>23.69737921763758</v>
+        <v>16.3295780335355</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.69771113784779</v>
+        <v>18.14015325017656</v>
       </c>
       <c r="N13">
-        <v>11.57484910589044</v>
+        <v>18.11801067019107</v>
       </c>
       <c r="O13">
-        <v>19.11939360958106</v>
+        <v>25.91848537956207</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.202732921850108</v>
+        <v>5.669272450896946</v>
       </c>
       <c r="D14">
-        <v>6.429202843287579</v>
+        <v>8.658240384310373</v>
       </c>
       <c r="E14">
-        <v>8.722641542078541</v>
+        <v>13.0104365608145</v>
       </c>
       <c r="F14">
-        <v>27.28956871317612</v>
+        <v>34.30349040184576</v>
       </c>
       <c r="G14">
-        <v>2.05754053771861</v>
+        <v>3.651527775164464</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.521768739886539</v>
+        <v>9.79228999877658</v>
       </c>
       <c r="K14">
-        <v>23.48910412895864</v>
+        <v>16.25346480755405</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53136741595378</v>
+        <v>18.10619452563738</v>
       </c>
       <c r="N14">
-        <v>11.60584413643316</v>
+        <v>18.12724985427546</v>
       </c>
       <c r="O14">
-        <v>19.04097416285527</v>
+        <v>25.92221149945316</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.149713929346898</v>
+        <v>5.649108640352314</v>
       </c>
       <c r="D15">
-        <v>6.408934750756259</v>
+        <v>8.655805403256345</v>
       </c>
       <c r="E15">
-        <v>8.70569971773058</v>
+        <v>13.01091824416176</v>
       </c>
       <c r="F15">
-        <v>27.20228390073287</v>
+        <v>34.30084240818479</v>
       </c>
       <c r="G15">
-        <v>2.058284708904558</v>
+        <v>3.651778668563029</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.5242926081964</v>
+        <v>9.794749887022812</v>
       </c>
       <c r="K15">
-        <v>23.36073218625779</v>
+        <v>16.206697101154</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.42885174857398</v>
+        <v>18.08541195124654</v>
       </c>
       <c r="N15">
-        <v>11.62489979040161</v>
+        <v>18.13294462760649</v>
       </c>
       <c r="O15">
-        <v>18.99330905071562</v>
+        <v>25.92462289231453</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.841244429048031</v>
+        <v>5.532514959051118</v>
       </c>
       <c r="D16">
-        <v>6.29232899948031</v>
+        <v>8.642150483067681</v>
       </c>
       <c r="E16">
-        <v>8.609777347958529</v>
+        <v>13.01428358318044</v>
       </c>
       <c r="F16">
-        <v>26.70717580855339</v>
+        <v>34.28838282420153</v>
       </c>
       <c r="G16">
-        <v>2.062572642894882</v>
+        <v>3.653238629429687</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.53967601278635</v>
+        <v>9.809176118189585</v>
       </c>
       <c r="K16">
-        <v>22.61279935914824</v>
+        <v>15.93652172774087</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.83173657061752</v>
+        <v>17.96662014909271</v>
       </c>
       <c r="N16">
-        <v>11.73516893296284</v>
+        <v>18.16612389632674</v>
       </c>
       <c r="O16">
-        <v>18.72578509339455</v>
+        <v>25.94041744933344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.647832021241273</v>
+        <v>5.460094757809501</v>
       </c>
       <c r="D17">
-        <v>6.22041273265134</v>
+        <v>8.634042659475771</v>
       </c>
       <c r="E17">
-        <v>8.551974751202909</v>
+        <v>13.016888469152</v>
       </c>
       <c r="F17">
-        <v>26.40802266605369</v>
+        <v>34.28316292721982</v>
       </c>
       <c r="G17">
-        <v>2.06522498069903</v>
+        <v>3.654154117082712</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.5499157463835</v>
+        <v>9.818320455070632</v>
       </c>
       <c r="K17">
-        <v>22.14293806701096</v>
+        <v>15.76892331110348</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.45676616260773</v>
+        <v>17.89404643387112</v>
       </c>
       <c r="N17">
-        <v>11.8037606847376</v>
+        <v>18.18696513050941</v>
       </c>
       <c r="O17">
-        <v>18.56665298750047</v>
+        <v>25.95186770654779</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.535037191544887</v>
+        <v>5.41812742322755</v>
       </c>
       <c r="D18">
-        <v>6.178918627354696</v>
+        <v>8.629478996519087</v>
       </c>
       <c r="E18">
-        <v>8.519112920509118</v>
+        <v>13.01858549632151</v>
       </c>
       <c r="F18">
-        <v>26.2376582677506</v>
+        <v>34.28105151702578</v>
       </c>
       <c r="G18">
-        <v>2.06675892666549</v>
+        <v>3.654687994236929</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.556093130020061</v>
+        <v>9.823688273134383</v>
       </c>
       <c r="K18">
-        <v>21.86860752981035</v>
+        <v>15.67187656633417</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.23788812349298</v>
+        <v>17.85242625785801</v>
       </c>
       <c r="N18">
-        <v>11.84355712207055</v>
+        <v>18.19913163315733</v>
       </c>
       <c r="O18">
-        <v>18.47694232806602</v>
+        <v>25.95909971844767</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.496579400728207</v>
+        <v>5.403865733978002</v>
       </c>
       <c r="D19">
-        <v>6.164848217913897</v>
+        <v>8.627951031126045</v>
       </c>
       <c r="E19">
-        <v>8.508052687967702</v>
+        <v>13.01919423509367</v>
       </c>
       <c r="F19">
-        <v>26.18026964300788</v>
+        <v>34.28048965902119</v>
       </c>
       <c r="G19">
-        <v>2.067279769725407</v>
+        <v>3.654870013615672</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.558233446902972</v>
+        <v>9.825524321510587</v>
       </c>
       <c r="K19">
-        <v>21.77502101248871</v>
+        <v>15.63891004407627</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.1632272214581</v>
+        <v>17.83835648818072</v>
       </c>
       <c r="N19">
-        <v>11.85709037759518</v>
+        <v>18.20328180131558</v>
       </c>
       <c r="O19">
-        <v>18.44687868178451</v>
+        <v>25.96165922898252</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.668581112185342</v>
+        <v>5.467836777470028</v>
       </c>
       <c r="D20">
-        <v>6.228082024084058</v>
+        <v>8.634895447634459</v>
       </c>
       <c r="E20">
-        <v>8.558088156788521</v>
+        <v>13.01659060706007</v>
       </c>
       <c r="F20">
-        <v>26.43969243842222</v>
+        <v>34.28362638878492</v>
       </c>
       <c r="G20">
-        <v>2.064941774492702</v>
+        <v>3.654055905421019</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.548795768779507</v>
+        <v>9.817335824425937</v>
       </c>
       <c r="K20">
-        <v>22.19337716870359</v>
+        <v>15.78683233444321</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.49701360349983</v>
+        <v>17.90175963331815</v>
       </c>
       <c r="N20">
-        <v>11.79642327992681</v>
+        <v>18.18472800759893</v>
       </c>
       <c r="O20">
-        <v>18.58340439778903</v>
+        <v>25.95058191260584</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.228075433958653</v>
+        <v>5.678922594829841</v>
       </c>
       <c r="D21">
-        <v>6.438913504352913</v>
+        <v>8.659413280354407</v>
       </c>
       <c r="E21">
-        <v>8.730786154978448</v>
+        <v>13.01021627521169</v>
       </c>
       <c r="F21">
-        <v>27.33151357663445</v>
+        <v>34.30480819419359</v>
       </c>
       <c r="G21">
-        <v>2.057184087346211</v>
+        <v>3.651407856873572</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.520575019784413</v>
+        <v>9.791116243234681</v>
       </c>
       <c r="K21">
-        <v>23.55044560437153</v>
+        <v>16.27585173433452</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.58035678597557</v>
+        <v>18.11616531339613</v>
       </c>
       <c r="N21">
-        <v>11.59672547175541</v>
+        <v>18.12452868391611</v>
       </c>
       <c r="O21">
-        <v>19.06393086868429</v>
+        <v>25.92109015210379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.580252345993301</v>
+        <v>5.813778412738436</v>
       </c>
       <c r="D22">
-        <v>6.575330248679771</v>
+        <v>8.676306378464794</v>
       </c>
       <c r="E22">
-        <v>8.847049164720405</v>
+        <v>13.00781606605836</v>
       </c>
       <c r="F22">
-        <v>27.92916537003026</v>
+        <v>34.32657710881706</v>
       </c>
       <c r="G22">
-        <v>2.052180655490091</v>
+        <v>3.649741933428317</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.504849553272066</v>
+        <v>9.774942407180703</v>
       </c>
       <c r="K22">
-        <v>24.40160670133338</v>
+        <v>16.58899940869351</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.26033415587967</v>
+        <v>18.25713432306566</v>
       </c>
       <c r="N22">
-        <v>11.46934924992925</v>
+        <v>18.08677484163246</v>
       </c>
       <c r="O22">
-        <v>19.39446430302101</v>
+        <v>25.90758847461564</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.39350731684619</v>
+        <v>5.742101161869488</v>
       </c>
       <c r="D23">
-        <v>6.502657467335014</v>
+        <v>8.667211616245426</v>
       </c>
       <c r="E23">
-        <v>8.784688119002245</v>
+        <v>13.00893575822422</v>
       </c>
       <c r="F23">
-        <v>27.60884818760646</v>
+        <v>34.31423410153672</v>
       </c>
       <c r="G23">
-        <v>2.054845389737761</v>
+        <v>3.650625164221111</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.512985923893708</v>
+        <v>9.783486728339977</v>
       </c>
       <c r="K23">
-        <v>23.95057006739295</v>
+        <v>16.42248835930276</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89995948941765</v>
+        <v>18.18183134184487</v>
       </c>
       <c r="N23">
-        <v>11.53704116913097</v>
+        <v>18.10677957063532</v>
       </c>
       <c r="O23">
-        <v>19.216530526409</v>
+        <v>25.91426552939728</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.659205433506537</v>
+        <v>5.464337640898624</v>
       </c>
       <c r="D24">
-        <v>6.224615197387962</v>
+        <v>8.634509597798409</v>
       </c>
       <c r="E24">
-        <v>8.555323134378057</v>
+        <v>13.01672464922628</v>
       </c>
       <c r="F24">
-        <v>26.42536947572944</v>
+        <v>34.28341408671974</v>
       </c>
       <c r="G24">
-        <v>2.065069783644303</v>
+        <v>3.654100283387007</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.549301207734965</v>
+        <v>9.817780631354452</v>
       </c>
       <c r="K24">
-        <v>22.17058674213534</v>
+        <v>15.77873781317928</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.47882802752646</v>
+        <v>17.89827217093467</v>
       </c>
       <c r="N24">
-        <v>11.7997393934279</v>
+        <v>18.18573883576302</v>
       </c>
       <c r="O24">
-        <v>18.57582555508291</v>
+        <v>25.95116119829437</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.807749825992529</v>
+        <v>5.152990318160145</v>
       </c>
       <c r="D25">
-        <v>5.919910390038438</v>
+        <v>8.603058263543041</v>
       </c>
       <c r="E25">
-        <v>8.322642612447849</v>
+        <v>13.03272676011969</v>
       </c>
       <c r="F25">
-        <v>25.21408414775992</v>
+        <v>34.28422423577511</v>
       </c>
       <c r="G25">
-        <v>2.076423293692292</v>
+        <v>3.65812859275275</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.599396617304732</v>
+        <v>9.85891138442352</v>
       </c>
       <c r="K25">
-        <v>20.09436106691142</v>
+        <v>15.06004142618431</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.99077705942078</v>
+        <v>17.59722795238946</v>
       </c>
       <c r="N25">
-        <v>12.09624617390528</v>
+        <v>18.27776322510569</v>
       </c>
       <c r="O25">
-        <v>17.95400072885954</v>
+        <v>26.0156450896837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_121/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915629811074257</v>
+        <v>7.128075522352977</v>
       </c>
       <c r="D2">
-        <v>8.583274659809444</v>
+        <v>5.692817285785305</v>
       </c>
       <c r="E2">
-        <v>13.05105998099303</v>
+        <v>8.164101533555279</v>
       </c>
       <c r="F2">
-        <v>34.31405872449314</v>
+        <v>24.38031808914837</v>
       </c>
       <c r="G2">
-        <v>3.661337967947568</v>
+        <v>2.08510288962486</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.892769714158318</v>
+        <v>5.644922827514877</v>
       </c>
       <c r="K2">
-        <v>14.51406234845141</v>
+        <v>18.42829494800808</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.38098029013006</v>
+        <v>14.91776090255687</v>
       </c>
       <c r="N2">
-        <v>18.35145926791868</v>
+        <v>12.32566203957322</v>
       </c>
       <c r="O2">
-        <v>26.0842163145504</v>
+        <v>17.55365807984878</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750894200201358</v>
+        <v>6.633753255386862</v>
       </c>
       <c r="D3">
-        <v>8.572011588633375</v>
+        <v>5.538029740446316</v>
       </c>
       <c r="E3">
-        <v>13.06757547913093</v>
+        <v>8.064668219212745</v>
       </c>
       <c r="F3">
-        <v>34.35245704808164</v>
+        <v>23.85246934600525</v>
       </c>
       <c r="G3">
-        <v>3.663666144554797</v>
+        <v>2.091203308747612</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.917952408448256</v>
+        <v>5.680824109917873</v>
       </c>
       <c r="K3">
-        <v>14.13593058514326</v>
+        <v>17.21215696543856</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.23843288551542</v>
+        <v>14.15572286978605</v>
       </c>
       <c r="N3">
-        <v>18.40513111931306</v>
+        <v>12.48801301249611</v>
       </c>
       <c r="O3">
-        <v>26.1437608241578</v>
+        <v>17.31689497930014</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.648291909041469</v>
+        <v>6.313362388582518</v>
       </c>
       <c r="D4">
-        <v>8.566166213489042</v>
+        <v>5.442863835274983</v>
       </c>
       <c r="E4">
-        <v>13.07973477895648</v>
+        <v>8.007569498437968</v>
       </c>
       <c r="F4">
-        <v>34.38497206122835</v>
+        <v>23.5469724313181</v>
       </c>
       <c r="G4">
-        <v>3.665171642017205</v>
+        <v>2.095062264809622</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.934520280079946</v>
+        <v>5.705252950544119</v>
       </c>
       <c r="K4">
-        <v>13.9006312070146</v>
+        <v>16.42211903927134</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.15309096936968</v>
+        <v>13.67184071431436</v>
       </c>
       <c r="N4">
-        <v>18.43993193558751</v>
+        <v>12.5910825631279</v>
       </c>
       <c r="O4">
-        <v>26.18673831074121</v>
+        <v>17.1880243793406</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.606190335121231</v>
+        <v>6.178521382957174</v>
       </c>
       <c r="D5">
-        <v>8.564055142500637</v>
+        <v>5.404101593709236</v>
       </c>
       <c r="E5">
-        <v>13.08519753520319</v>
+        <v>7.985294662996877</v>
       </c>
       <c r="F5">
-        <v>34.40046493900022</v>
+        <v>23.42718609474644</v>
       </c>
       <c r="G5">
-        <v>3.665804314275285</v>
+        <v>2.096664087393246</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.941550167235782</v>
+        <v>5.715793032863834</v>
       </c>
       <c r="K5">
-        <v>13.80410058780824</v>
+        <v>16.08922686539595</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.1188932248781</v>
+        <v>13.47085737401727</v>
       </c>
       <c r="N5">
-        <v>18.45457881296792</v>
+        <v>12.63393541738417</v>
       </c>
       <c r="O5">
-        <v>26.20586066810353</v>
+        <v>17.13956686037885</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.599184177112573</v>
+        <v>6.155871656835308</v>
       </c>
       <c r="D6">
-        <v>8.563721018105047</v>
+        <v>5.397667794383628</v>
       </c>
       <c r="E6">
-        <v>13.0861352899141</v>
+        <v>7.981655874540201</v>
       </c>
       <c r="F6">
-        <v>34.40317281391251</v>
+        <v>23.40758040039315</v>
       </c>
       <c r="G6">
-        <v>3.66591052865909</v>
+        <v>2.096931858637841</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.9427342958725</v>
+        <v>5.717578132637309</v>
       </c>
       <c r="K6">
-        <v>13.78803712479076</v>
+        <v>16.03328793313507</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.11325061615736</v>
+        <v>13.43726221177961</v>
       </c>
       <c r="N6">
-        <v>18.45703904765439</v>
+        <v>12.64110252519347</v>
       </c>
       <c r="O6">
-        <v>26.20913293038522</v>
+        <v>17.13176271610751</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.647725184292873</v>
+        <v>6.311561248519247</v>
       </c>
       <c r="D7">
-        <v>8.566136643353344</v>
+        <v>5.442340930467036</v>
       </c>
       <c r="E7">
-        <v>13.07980639566985</v>
+        <v>8.00726507276601</v>
       </c>
       <c r="F7">
-        <v>34.38517193002731</v>
+        <v>23.54533787080544</v>
       </c>
       <c r="G7">
-        <v>3.665180096756405</v>
+        <v>2.095083748040357</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.9346139601445</v>
+        <v>5.705392747382277</v>
       </c>
       <c r="K7">
-        <v>13.89933177723451</v>
+        <v>16.41767391946323</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.15262737905161</v>
+        <v>13.6691452336791</v>
       </c>
       <c r="N7">
-        <v>18.44012758327679</v>
+        <v>12.59165704473684</v>
       </c>
       <c r="O7">
-        <v>26.18698969485867</v>
+        <v>17.18735456252673</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.859174163822052</v>
+        <v>6.961113790085717</v>
       </c>
       <c r="D8">
-        <v>8.579170185937409</v>
+        <v>5.639501972621846</v>
       </c>
       <c r="E8">
-        <v>13.05633563592205</v>
+        <v>8.128996400070003</v>
       </c>
       <c r="F8">
-        <v>34.3254407014453</v>
+        <v>24.19447578466384</v>
       </c>
       <c r="G8">
-        <v>3.662124989462022</v>
+        <v>2.087183287989818</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.901223441520134</v>
+        <v>5.656797432189463</v>
       </c>
       <c r="K8">
-        <v>14.38441370047176</v>
+        <v>18.01792983655741</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.33139574324345</v>
+        <v>14.65844965385886</v>
       </c>
       <c r="N8">
-        <v>18.36958279731661</v>
+        <v>12.38093766154431</v>
       </c>
       <c r="O8">
-        <v>26.10341259727855</v>
+        <v>17.46854580537984</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.259272899247185</v>
+        <v>8.102649812626568</v>
       </c>
       <c r="D9">
-        <v>8.61313416879001</v>
+        <v>6.023077109337369</v>
       </c>
       <c r="E9">
-        <v>13.02631959348161</v>
+        <v>8.399043443177581</v>
       </c>
       <c r="F9">
-        <v>34.27940411879399</v>
+        <v>25.61321902200275</v>
       </c>
       <c r="G9">
-        <v>3.656734027361218</v>
+        <v>2.072551718844065</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.844502188337106</v>
+        <v>5.581131505673446</v>
       </c>
       <c r="K9">
-        <v>15.30503926839248</v>
+        <v>20.81488645583294</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.69787953951602</v>
+        <v>16.46381373525732</v>
       </c>
       <c r="N9">
-        <v>18.24584507921249</v>
+        <v>11.99463305012707</v>
       </c>
       <c r="O9">
-        <v>25.99063699973582</v>
+        <v>18.1543782636254</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.5407350462609</v>
+        <v>8.863105248802016</v>
       </c>
       <c r="D10">
-        <v>8.643089094656013</v>
+        <v>6.300516765374669</v>
       </c>
       <c r="E10">
-        <v>13.01401326793241</v>
+        <v>8.6164250424084</v>
       </c>
       <c r="F10">
-        <v>34.28909916195072</v>
+        <v>26.74154039076763</v>
       </c>
       <c r="G10">
-        <v>3.653135155497707</v>
+        <v>2.062271103330126</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.808147346495071</v>
+        <v>5.538547093249277</v>
       </c>
       <c r="K10">
-        <v>15.95555556709328</v>
+        <v>22.66586296295628</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.97491704665595</v>
+        <v>17.87409064185736</v>
       </c>
       <c r="N10">
-        <v>18.16377002586783</v>
+        <v>11.7273890009061</v>
       </c>
       <c r="O10">
-        <v>25.93919851941967</v>
+        <v>18.74419054480486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.665420649230609</v>
+        <v>9.192611915562704</v>
       </c>
       <c r="D11">
-        <v>8.657773590814601</v>
+        <v>6.425328803279154</v>
       </c>
       <c r="E11">
-        <v>13.01052633362513</v>
+        <v>8.71939725059068</v>
       </c>
       <c r="F11">
-        <v>34.30297352153691</v>
+        <v>27.27285761209002</v>
       </c>
       <c r="G11">
-        <v>3.65157566791075</v>
+        <v>2.057682758254423</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.792759129736044</v>
+        <v>5.522247767039392</v>
       </c>
       <c r="K11">
-        <v>16.24453000137759</v>
+        <v>23.46460283586024</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.10221916390116</v>
+        <v>18.5118004193444</v>
       </c>
       <c r="N11">
-        <v>18.12833676272603</v>
+        <v>11.60948399833942</v>
       </c>
       <c r="O11">
-        <v>25.92266497945402</v>
+        <v>19.03183726960829</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.712107463491328</v>
+        <v>9.315071552743095</v>
       </c>
       <c r="D12">
-        <v>8.663483660778885</v>
+        <v>6.472358794456966</v>
       </c>
       <c r="E12">
-        <v>13.00950891118169</v>
+        <v>8.758973302377903</v>
       </c>
       <c r="F12">
-        <v>34.30958736990895</v>
+        <v>27.47659700326931</v>
       </c>
       <c r="G12">
-        <v>3.650996233478555</v>
+        <v>2.055956792767812</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.787097038635793</v>
+        <v>5.516539953113544</v>
       </c>
       <c r="K12">
-        <v>16.35285793407395</v>
+        <v>23.76092583547536</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.15057312110622</v>
+        <v>18.74846877219875</v>
       </c>
       <c r="N12">
-        <v>18.11519178534389</v>
+        <v>11.56537312011327</v>
       </c>
       <c r="O12">
-        <v>25.91739433402049</v>
+        <v>19.14358724751869</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.702076834964631</v>
+        <v>9.288800004779004</v>
       </c>
       <c r="D13">
-        <v>8.662247296910888</v>
+        <v>6.462240910158027</v>
       </c>
       <c r="E13">
-        <v>13.00971456576707</v>
+        <v>8.750424042126658</v>
       </c>
       <c r="F13">
-        <v>34.30810250491714</v>
+        <v>27.43260579409599</v>
       </c>
       <c r="G13">
-        <v>3.651120531854119</v>
+        <v>2.056328016514757</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.788309132570157</v>
+        <v>5.517748203075137</v>
       </c>
       <c r="K13">
-        <v>16.3295780335355</v>
+        <v>23.69737921763755</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.14015325017656</v>
+        <v>18.69771113784777</v>
       </c>
       <c r="N13">
-        <v>18.11801067019107</v>
+        <v>11.57484910589048</v>
       </c>
       <c r="O13">
-        <v>25.91848537956207</v>
+        <v>19.11939360958114</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.669272450896946</v>
+        <v>9.202732921850117</v>
       </c>
       <c r="D14">
-        <v>8.658240384310373</v>
+        <v>6.429202843287642</v>
       </c>
       <c r="E14">
-        <v>13.0104365608145</v>
+        <v>8.722641542078577</v>
       </c>
       <c r="F14">
-        <v>34.30349040184576</v>
+        <v>27.28956871317605</v>
       </c>
       <c r="G14">
-        <v>3.651527775164464</v>
+        <v>2.057540537718743</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.79228999877658</v>
+        <v>5.521768739886586</v>
       </c>
       <c r="K14">
-        <v>16.25346480755405</v>
+        <v>23.48910412895867</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.10619452563738</v>
+        <v>18.53136741595376</v>
       </c>
       <c r="N14">
-        <v>18.12724985427546</v>
+        <v>11.60584413643309</v>
       </c>
       <c r="O14">
-        <v>25.92221149945316</v>
+        <v>19.04097416285522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.649108640352314</v>
+        <v>9.149713929346959</v>
       </c>
       <c r="D15">
-        <v>8.655805403256345</v>
+        <v>6.408934750756217</v>
       </c>
       <c r="E15">
-        <v>13.01091824416176</v>
+        <v>8.705699717730585</v>
       </c>
       <c r="F15">
-        <v>34.30084240818479</v>
+        <v>27.20228390073277</v>
       </c>
       <c r="G15">
-        <v>3.651778668563029</v>
+        <v>2.058284708904555</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.794749887022812</v>
+        <v>5.52429260819641</v>
       </c>
       <c r="K15">
-        <v>16.206697101154</v>
+        <v>23.36073218625784</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.08541195124654</v>
+        <v>18.42885174857401</v>
       </c>
       <c r="N15">
-        <v>18.13294462760649</v>
+        <v>11.62489979040155</v>
       </c>
       <c r="O15">
-        <v>25.92462289231453</v>
+        <v>18.99330905071553</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.532514959051118</v>
+        <v>8.841244429048091</v>
       </c>
       <c r="D16">
-        <v>8.642150483067681</v>
+        <v>6.292328999480301</v>
       </c>
       <c r="E16">
-        <v>13.01428358318044</v>
+        <v>8.609777347958529</v>
       </c>
       <c r="F16">
-        <v>34.28838282420153</v>
+        <v>26.70717580855338</v>
       </c>
       <c r="G16">
-        <v>3.653238629429687</v>
+        <v>2.062572642894882</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.809176118189585</v>
+        <v>5.539676012786323</v>
       </c>
       <c r="K16">
-        <v>15.93652172774087</v>
+        <v>22.61279935914824</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.96662014909271</v>
+        <v>17.83173657061752</v>
       </c>
       <c r="N16">
-        <v>18.16612389632674</v>
+        <v>11.73516893296285</v>
       </c>
       <c r="O16">
-        <v>25.94041744933344</v>
+        <v>18.72578509339454</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.460094757809501</v>
+        <v>8.647832021241285</v>
       </c>
       <c r="D17">
-        <v>8.634042659475771</v>
+        <v>6.220412732651362</v>
       </c>
       <c r="E17">
-        <v>13.016888469152</v>
+        <v>8.551974751202867</v>
       </c>
       <c r="F17">
-        <v>34.28316292721982</v>
+        <v>26.40802266605368</v>
       </c>
       <c r="G17">
-        <v>3.654154117082712</v>
+        <v>2.065224980699164</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.818320455070632</v>
+        <v>5.549915746383445</v>
       </c>
       <c r="K17">
-        <v>15.76892331110348</v>
+        <v>22.14293806701097</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.89404643387112</v>
+        <v>17.45676616260776</v>
       </c>
       <c r="N17">
-        <v>18.18696513050941</v>
+        <v>11.8037606847376</v>
       </c>
       <c r="O17">
-        <v>25.95186770654779</v>
+        <v>18.56665298750048</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.41812742322755</v>
+        <v>8.535037191544827</v>
       </c>
       <c r="D18">
-        <v>8.629478996519087</v>
+        <v>6.178918627354762</v>
       </c>
       <c r="E18">
-        <v>13.01858549632151</v>
+        <v>8.519112920509157</v>
       </c>
       <c r="F18">
-        <v>34.28105151702578</v>
+        <v>26.23765826775062</v>
       </c>
       <c r="G18">
-        <v>3.654687994236929</v>
+        <v>2.06675892666549</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.823688273134383</v>
+        <v>5.556093130020031</v>
       </c>
       <c r="K18">
-        <v>15.67187656633417</v>
+        <v>21.86860752981035</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.85242625785801</v>
+        <v>17.23788812349297</v>
       </c>
       <c r="N18">
-        <v>18.19913163315733</v>
+        <v>11.84355712207055</v>
       </c>
       <c r="O18">
-        <v>25.95909971844767</v>
+        <v>18.47694232806602</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.403865733978002</v>
+        <v>8.496579400728329</v>
       </c>
       <c r="D19">
-        <v>8.627951031126045</v>
+        <v>6.164848217914014</v>
       </c>
       <c r="E19">
-        <v>13.01919423509367</v>
+        <v>8.508052687967751</v>
       </c>
       <c r="F19">
-        <v>34.28048965902119</v>
+        <v>26.18026964300787</v>
       </c>
       <c r="G19">
-        <v>3.654870013615672</v>
+        <v>2.067279769725404</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.825524321510587</v>
+        <v>5.558233446902956</v>
       </c>
       <c r="K19">
-        <v>15.63891004407627</v>
+        <v>21.77502101248876</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.83835648818072</v>
+        <v>17.16322722145813</v>
       </c>
       <c r="N19">
-        <v>18.20328180131558</v>
+        <v>11.85709037759518</v>
       </c>
       <c r="O19">
-        <v>25.96165922898252</v>
+        <v>18.44687868178444</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.467836777470028</v>
+        <v>8.668581112185326</v>
       </c>
       <c r="D20">
-        <v>8.634895447634459</v>
+        <v>6.228082024084046</v>
       </c>
       <c r="E20">
-        <v>13.01659060706007</v>
+        <v>8.558088156788491</v>
       </c>
       <c r="F20">
-        <v>34.28362638878492</v>
+        <v>26.43969243842231</v>
       </c>
       <c r="G20">
-        <v>3.654055905421019</v>
+        <v>2.064941774492571</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.817335824425937</v>
+        <v>5.54879576877948</v>
       </c>
       <c r="K20">
-        <v>15.78683233444321</v>
+        <v>22.19337716870352</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.90175963331815</v>
+        <v>17.49701360349981</v>
       </c>
       <c r="N20">
-        <v>18.18472800759893</v>
+        <v>11.79642327992681</v>
       </c>
       <c r="O20">
-        <v>25.95058191260584</v>
+        <v>18.58340439778911</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.678922594829841</v>
+        <v>9.228075433958614</v>
       </c>
       <c r="D21">
-        <v>8.659413280354407</v>
+        <v>6.438913504352954</v>
       </c>
       <c r="E21">
-        <v>13.01021627521169</v>
+        <v>8.73078615497853</v>
       </c>
       <c r="F21">
-        <v>34.30480819419359</v>
+        <v>27.33151357663446</v>
       </c>
       <c r="G21">
-        <v>3.651407856873572</v>
+        <v>2.057184087346075</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.791116243234681</v>
+        <v>5.520575019784466</v>
       </c>
       <c r="K21">
-        <v>16.27585173433452</v>
+        <v>23.55044560437156</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.11616531339613</v>
+        <v>18.58035678597557</v>
       </c>
       <c r="N21">
-        <v>18.12452868391611</v>
+        <v>11.59672547175531</v>
       </c>
       <c r="O21">
-        <v>25.92109015210379</v>
+        <v>19.06393086868424</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.813778412738436</v>
+        <v>9.580252345993417</v>
       </c>
       <c r="D22">
-        <v>8.676306378464794</v>
+        <v>6.575330248679766</v>
       </c>
       <c r="E22">
-        <v>13.00781606605836</v>
+        <v>8.847049164720417</v>
       </c>
       <c r="F22">
-        <v>34.32657710881706</v>
+        <v>27.92916537003018</v>
       </c>
       <c r="G22">
-        <v>3.649741933428317</v>
+        <v>2.052180655489827</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.774942407180703</v>
+        <v>5.504849553272097</v>
       </c>
       <c r="K22">
-        <v>16.58899940869351</v>
+        <v>24.40160670133338</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.25713432306566</v>
+        <v>19.26033415587967</v>
       </c>
       <c r="N22">
-        <v>18.08677484163246</v>
+        <v>11.46934924992919</v>
       </c>
       <c r="O22">
-        <v>25.90758847461564</v>
+        <v>19.39446430302095</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.742101161869488</v>
+        <v>9.393507316846085</v>
       </c>
       <c r="D23">
-        <v>8.667211616245426</v>
+        <v>6.502657467335079</v>
       </c>
       <c r="E23">
-        <v>13.00893575822422</v>
+        <v>8.784688119002244</v>
       </c>
       <c r="F23">
-        <v>34.31423410153672</v>
+        <v>27.60884818760649</v>
       </c>
       <c r="G23">
-        <v>3.650625164221111</v>
+        <v>2.054845389738429</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.783486728339977</v>
+        <v>5.512985923893682</v>
       </c>
       <c r="K23">
-        <v>16.42248835930276</v>
+        <v>23.95057006739295</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.18183134184487</v>
+        <v>18.89995948941766</v>
       </c>
       <c r="N23">
-        <v>18.10677957063532</v>
+        <v>11.53704116913094</v>
       </c>
       <c r="O23">
-        <v>25.91426552939728</v>
+        <v>19.21653052640903</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.464337640898624</v>
+        <v>8.659205433506555</v>
       </c>
       <c r="D24">
-        <v>8.634509597798409</v>
+        <v>6.224615197387958</v>
       </c>
       <c r="E24">
-        <v>13.01672464922628</v>
+        <v>8.555323134378041</v>
       </c>
       <c r="F24">
-        <v>34.28341408671974</v>
+        <v>26.42536947572936</v>
       </c>
       <c r="G24">
-        <v>3.654100283387007</v>
+        <v>2.065069783644304</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.817780631354452</v>
+        <v>5.549301207734963</v>
       </c>
       <c r="K24">
-        <v>15.77873781317928</v>
+        <v>22.1705867421354</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.89827217093467</v>
+        <v>17.47882802752651</v>
       </c>
       <c r="N24">
-        <v>18.18573883576302</v>
+        <v>11.79973939342783</v>
       </c>
       <c r="O24">
-        <v>25.95116119829437</v>
+        <v>18.57582555508283</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.152990318160145</v>
+        <v>7.807749825992548</v>
       </c>
       <c r="D25">
-        <v>8.603058263543041</v>
+        <v>5.919910390038565</v>
       </c>
       <c r="E25">
-        <v>13.03272676011969</v>
+        <v>8.322642612447941</v>
       </c>
       <c r="F25">
-        <v>34.28422423577511</v>
+        <v>25.2140841477599</v>
       </c>
       <c r="G25">
-        <v>3.65812859275275</v>
+        <v>2.076423293692157</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.85891138442352</v>
+        <v>5.599396617304759</v>
       </c>
       <c r="K25">
-        <v>15.06004142618431</v>
+        <v>20.09436106691149</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.59722795238946</v>
+        <v>15.99077705942079</v>
       </c>
       <c r="N25">
-        <v>18.27776322510569</v>
+        <v>12.09624617390524</v>
       </c>
       <c r="O25">
-        <v>26.0156450896837</v>
+        <v>17.95400072885944</v>
       </c>
     </row>
   </sheetData>
